--- a/DATA_DEFAULT.xlsx
+++ b/DATA_DEFAULT.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAF3FC-9E8C-417C-8001-9CF8FD6BC7E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USERDATA" sheetId="1" r:id="rId1"/>
@@ -21,52 +22,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>UID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bruce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bruce123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amy321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯用车时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总车量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康车辆数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在使用车辆数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前打折率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时基准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wobike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dibi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,53 +485,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>156.5</v>
@@ -446,6 +553,84 @@
       </c>
       <c r="H2">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>24.5</v>
+      </c>
+      <c r="E3">
+        <v>23.2</v>
+      </c>
+      <c r="F3">
+        <v>17611399526</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>22.1</v>
+      </c>
+      <c r="F4">
+        <v>13599832139</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>234.1</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>18399872419</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -456,26 +641,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>19.2</v>
+      </c>
+      <c r="E2">
+        <v>14.5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>12.6</v>
+      </c>
+      <c r="E3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>23.4</v>
+      </c>
+      <c r="E4">
+        <v>43.5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>43.4</v>
+      </c>
+      <c r="E5">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>12.5</v>
+      </c>
+      <c r="E6">
+        <v>43.2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>52.5</v>
+      </c>
+      <c r="E7">
+        <v>19.8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1034.52</v>
+      </c>
+      <c r="G2">
+        <v>2540.1999999999998</v>
+      </c>
+      <c r="H2">
+        <v>563</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3240.4</v>
+      </c>
+      <c r="G3">
+        <v>3214.2</v>
+      </c>
+      <c r="H3">
+        <v>432</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2352.4299999999998</v>
+      </c>
+      <c r="G4">
+        <v>2700.3</v>
+      </c>
+      <c r="H4">
+        <v>589</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
